--- a/dane3.xlsx
+++ b/dane3.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F57D4318-5C60-43C0-AF83-94C1FD013688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="230">
   <si>
     <t>Imie</t>
   </si>
@@ -37,6 +37,684 @@
   </si>
   <si>
     <t>P_e_</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Alicja</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Chrostowska</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Alicja</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Chrostowska</t>
+  </si>
+  <si>
+    <t>Dziedzina</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Alicja</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Chrostowska</t>
+  </si>
+  <si>
+    <t>Dziedzina</t>
+  </si>
+  <si>
+    <t>Sokoluk</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Alicja</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Chrostowska</t>
+  </si>
+  <si>
+    <t>Dziedzina</t>
+  </si>
+  <si>
+    <t>Sokoluk</t>
+  </si>
+  <si>
+    <t>Szerszeń</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Alicja</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Chrostowska</t>
+  </si>
+  <si>
+    <t>Dziedzina</t>
+  </si>
+  <si>
+    <t>Sokoluk</t>
+  </si>
+  <si>
+    <t>Szerszeń</t>
+  </si>
+  <si>
+    <t>Chojnacki</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>KacperCh</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Imie</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Marcin</t>
+  </si>
+  <si>
+    <t>Dominika</t>
+  </si>
+  <si>
+    <t>Alicja</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Mateusz</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Kacper</t>
+  </si>
+  <si>
+    <t>Kamil</t>
+  </si>
+  <si>
+    <t>Nazwisko</t>
+  </si>
+  <si>
+    <t>Kowalski</t>
+  </si>
+  <si>
+    <t>Przykład</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Bujanowicz</t>
+  </si>
+  <si>
+    <t>Chrostowska</t>
+  </si>
+  <si>
+    <t>Dziedzina</t>
+  </si>
+  <si>
+    <t>Sokoluk</t>
+  </si>
+  <si>
+    <t>Szerszeń</t>
+  </si>
+  <si>
+    <t>Chojnacki</t>
+  </si>
+  <si>
+    <t>Gałecki</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>kowalski</t>
+  </si>
+  <si>
+    <t>przyklad</t>
+  </si>
+  <si>
+    <t>nowak</t>
+  </si>
+  <si>
+    <t>dominikab</t>
+  </si>
+  <si>
+    <t>AlicjaCh</t>
+  </si>
+  <si>
+    <t>NataliaD</t>
+  </si>
+  <si>
+    <t>MateuszS</t>
+  </si>
+  <si>
+    <t>NataliaSz</t>
+  </si>
+  <si>
+    <t>KacperCh</t>
+  </si>
+  <si>
+    <t>KamilG</t>
+  </si>
+  <si>
+    <t>P_e_</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>M</t>
   </si>
 </sst>
 </file>
@@ -60,7 +738,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -68,12 +746,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -354,26 +1052,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.82421875" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="9.6015625" customWidth="true"/>
+    <col min="4" max="4" width="5.15625" customWidth="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+    <row r="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
